--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -165,7 +165,19 @@
     <t>REMISIONES    POR     CREDITOS    DE   FEBRERO        2 0 2 3</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>CANCELADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMA LEDO    central </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 SUR </t>
+  </si>
+  <si>
+    <t>1-Feb-23--2-Feb-23</t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
   </si>
 </sst>
 </file>
@@ -984,33 +996,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1019,6 +1004,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1576,11 +1588,11 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1597,25 +1609,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1932,8 +1944,8 @@
       <c r="E15" s="20">
         <v>250</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -2104,11 +2116,15 @@
       <c r="E22" s="20">
         <v>1174</v>
       </c>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
+      <c r="F22" s="132">
+        <v>44958</v>
+      </c>
+      <c r="G22" s="133">
+        <v>1174</v>
+      </c>
       <c r="H22" s="19">
         <f t="shared" si="0"/>
-        <v>1174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2150,8 +2166,8 @@
       <c r="E24" s="20">
         <v>9540</v>
       </c>
-      <c r="F24" s="141"/>
-      <c r="G24" s="142"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>9540</v>
@@ -2171,8 +2187,8 @@
       <c r="E25" s="20">
         <v>90643</v>
       </c>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
         <v>90643</v>
@@ -2192,8 +2208,8 @@
       <c r="E26" s="20">
         <v>22032</v>
       </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="142"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
         <v>22032</v>
@@ -2213,14 +2229,14 @@
       <c r="E27" s="20">
         <v>4400</v>
       </c>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>44953</v>
       </c>
@@ -2234,11 +2250,16 @@
       <c r="E28" s="20">
         <v>15393</v>
       </c>
-      <c r="F28" s="141"/>
-      <c r="G28" s="142"/>
+      <c r="F28" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="133">
+        <f>12000+3393</f>
+        <v>15393</v>
+      </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
-        <v>15393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2502,11 +2523,11 @@
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>195250</v>
+        <v>211817</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
-        <v>142008</v>
+        <v>126615</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -2548,12 +2569,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="134">
+      <c r="E52" s="138">
         <f>E48-G48</f>
-        <v>143432</v>
-      </c>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136"/>
+        <v>126865</v>
+      </c>
+      <c r="F52" s="139"/>
+      <c r="G52" s="140"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2569,11 +2590,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,7 +2757,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2752,17 +2773,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
       <c r="Z2" s="116" t="s">
         <v>21</v>
       </c>
@@ -2805,7 +2826,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2827,7 +2848,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2850,7 +2871,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2873,7 +2894,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2895,7 +2916,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2917,7 +2938,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2939,7 +2960,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -2961,7 +2982,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -2983,7 +3004,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -3005,7 +3026,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -3027,7 +3048,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -3049,7 +3070,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -3071,7 +3092,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3093,7 +3114,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3115,7 +3136,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3137,7 +3158,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3159,7 +3180,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3181,55 +3202,73 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="21"/>
+      <c r="B22" s="91">
+        <v>44981</v>
+      </c>
+      <c r="C22" s="92">
+        <v>44984</v>
+      </c>
+      <c r="D22" s="21">
+        <v>55595.5</v>
+      </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>764839.5</v>
       </c>
       <c r="G22" s="82"/>
       <c r="H22" s="87"/>
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="21"/>
+      <c r="B23" s="91">
+        <v>44982</v>
+      </c>
+      <c r="C23" s="92">
+        <v>44984</v>
+      </c>
+      <c r="D23" s="21">
+        <v>61653</v>
+      </c>
       <c r="E23" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>826492.5</v>
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="87"/>
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="91">
+        <v>44982</v>
+      </c>
+      <c r="C24" s="92">
+        <v>44984</v>
+      </c>
+      <c r="D24" s="21">
+        <v>4074</v>
+      </c>
       <c r="E24" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G24" s="82"/>
       <c r="H24" s="87"/>
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3238,14 +3277,14 @@
       <c r="D25" s="21"/>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3254,14 +3293,14 @@
       <c r="D26" s="21"/>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,14 +3309,14 @@
       <c r="D27" s="21"/>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3286,7 +3325,7 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="98">
@@ -3300,7 +3339,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1320097.58</v>
+        <v>-1198775.08</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3309,14 +3348,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1320097.58</v>
+        <v>-1198775.08</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3325,7 +3364,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -3338,7 +3377,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -3351,7 +3390,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -3360,7 +3399,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -3369,7 +3408,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3378,7 +3417,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3387,7 +3426,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -3396,7 +3435,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3405,7 +3444,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3414,7 +3453,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3423,7 +3462,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3432,7 +3471,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="104">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -3441,7 +3480,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -3450,7 +3489,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3459,7 +3498,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -3468,7 +3507,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -3477,7 +3516,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="F46"/>
     </row>
@@ -3487,7 +3526,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>709244</v>
+        <v>830566.5</v>
       </c>
       <c r="F47"/>
     </row>
@@ -3621,8 +3660,8 @@
   </sheetPr>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3639,25 +3678,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
+      <c r="B2" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3688,17 +3727,21 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>33</v>
+      <c r="A4" s="14">
+        <v>44956</v>
       </c>
       <c r="B4" s="15">
         <v>633</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="140"/>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
       <c r="H4" s="19">
         <f t="shared" ref="H4:H47" si="0">E4-G4</f>
         <v>0</v>
@@ -3706,93 +3749,129 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44956</v>
+      </c>
       <c r="B5" s="15">
         <v>634</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="20">
+        <v>3300</v>
+      </c>
       <c r="F5" s="122"/>
       <c r="G5" s="21"/>
       <c r="H5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44957</v>
+      </c>
       <c r="B6" s="15">
         <v>635</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1441</v>
+      </c>
       <c r="F6" s="122"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="22">
+        <v>44958</v>
+      </c>
       <c r="B7" s="15">
         <v>636</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1527</v>
+      </c>
       <c r="F7" s="122"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44959</v>
+      </c>
       <c r="B8" s="15">
         <v>637</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="20">
+        <v>30548</v>
+      </c>
       <c r="F8" s="122"/>
       <c r="G8" s="21"/>
       <c r="H8" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30548</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>44959</v>
+      </c>
       <c r="B9" s="15">
         <v>638</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7684</v>
+      </c>
       <c r="F9" s="122"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44959</v>
+      </c>
       <c r="B10" s="15">
         <v>639</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7684</v>
+      </c>
       <c r="F10" s="122"/>
       <c r="G10" s="21"/>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4357,7 +4436,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>0</v>
+        <v>52184</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
@@ -4408,12 +4487,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="134">
+      <c r="E52" s="138">
         <f>E48-G48</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136"/>
+        <v>52184</v>
+      </c>
+      <c r="F52" s="139"/>
+      <c r="G52" s="140"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,11 +4508,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>OBRADOR</t>
+  </si>
+  <si>
+    <t>6-Feb-23--8-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -731,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,6 +1040,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3661,7 +3674,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3804,11 +3817,15 @@
       <c r="E7" s="20">
         <v>1527</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="122">
+        <v>44965</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1527</v>
+      </c>
       <c r="H7" s="19">
         <f t="shared" si="0"/>
-        <v>1527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3867,101 +3884,150 @@
       <c r="E10" s="20">
         <v>7684</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="122">
+        <v>44961</v>
+      </c>
+      <c r="G10" s="21">
+        <v>7684</v>
+      </c>
       <c r="H10" s="19">
         <f t="shared" si="0"/>
-        <v>7684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44961</v>
+      </c>
       <c r="B11" s="15">
         <v>640</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="20">
+        <v>43098</v>
+      </c>
+      <c r="F11" s="143">
+        <v>44965</v>
+      </c>
+      <c r="G11" s="144">
+        <v>43098</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44962</v>
+      </c>
       <c r="B12" s="15">
         <v>641</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="20">
+        <v>22007</v>
+      </c>
+      <c r="F12" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="21">
+        <f>8600+10500</f>
+        <v>19100</v>
+      </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44963</v>
+      </c>
       <c r="B13" s="15">
         <v>642</v>
       </c>
       <c r="C13" s="28"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20">
+        <v>11465</v>
+      </c>
       <c r="F13" s="122"/>
       <c r="G13" s="21"/>
       <c r="H13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44965</v>
+      </c>
       <c r="B14" s="15">
         <v>643</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="20">
+        <v>8430</v>
+      </c>
       <c r="F14" s="122"/>
       <c r="G14" s="21"/>
       <c r="H14" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8430</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44965</v>
+      </c>
       <c r="B15" s="15">
         <v>644</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1116</v>
+      </c>
       <c r="F15" s="122"/>
       <c r="G15" s="21"/>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44966</v>
+      </c>
       <c r="B16" s="15">
         <v>645</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="20">
+        <v>22753</v>
+      </c>
       <c r="F16" s="122"/>
       <c r="G16" s="21"/>
       <c r="H16" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22753</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,12 +4502,12 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>52184</v>
+        <v>161053</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>0</v>
+        <v>71409</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
@@ -4489,7 +4555,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="138">
         <f>E48-G48</f>
-        <v>52184</v>
+        <v>89644</v>
       </c>
       <c r="F52" s="139"/>
       <c r="G52" s="140"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -180,7 +180,7 @@
     <t>OBRADOR</t>
   </si>
   <si>
-    <t>6-Feb-23--8-Feb-23</t>
+    <t>6-Feb-23--8-Feb-23--11-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -1013,6 +1013,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,10 +1044,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1622,25 +1622,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="B2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2582,12 +2582,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="138">
+      <c r="E52" s="140">
         <f>E48-G48</f>
         <v>126865</v>
       </c>
-      <c r="F52" s="139"/>
-      <c r="G52" s="140"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="142"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,11 +2603,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="141" t="s">
+      <c r="E54" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
   <dimension ref="A2:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2786,17 +2786,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
       <c r="Z2" s="116" t="s">
         <v>21</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2861,7 +2861,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -3061,7 +3061,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -3171,7 +3171,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3193,7 +3193,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3281,64 +3281,88 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="91">
+        <v>44983</v>
+      </c>
+      <c r="C25" s="92">
+        <v>44987</v>
+      </c>
+      <c r="D25" s="21">
+        <v>55700</v>
+      </c>
       <c r="E25" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>886266.5</v>
       </c>
       <c r="G25" s="82"/>
       <c r="H25" s="87"/>
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="91">
+        <v>44984</v>
+      </c>
+      <c r="C26" s="92">
+        <v>44987</v>
+      </c>
+      <c r="D26" s="21">
+        <v>40670</v>
+      </c>
       <c r="E26" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>926936.5</v>
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="87"/>
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="91">
+        <v>44985</v>
+      </c>
+      <c r="C27" s="92">
+        <v>44987</v>
+      </c>
+      <c r="D27" s="21">
+        <v>63172</v>
+      </c>
       <c r="E27" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>990108.5</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="95"/>
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="91">
+        <v>44986</v>
+      </c>
+      <c r="C28" s="92">
+        <v>44987</v>
+      </c>
+      <c r="D28" s="21">
+        <v>99843</v>
+      </c>
       <c r="E28" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="F28" s="97"/>
       <c r="G28" s="98">
@@ -3352,7 +3376,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-1198775.08</v>
+        <v>-939390.08000000007</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3361,14 +3385,14 @@
       <c r="D29" s="21"/>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-1198775.08</v>
+        <v>-939390.08000000007</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3377,7 +3401,7 @@
       <c r="D30" s="21"/>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -3390,7 +3414,7 @@
       <c r="D31" s="102"/>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
@@ -3403,7 +3427,7 @@
       <c r="D32" s="103"/>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -3412,7 +3436,7 @@
       <c r="D33" s="103"/>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
@@ -3421,7 +3445,7 @@
       <c r="D34" s="103"/>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3430,7 +3454,7 @@
       <c r="D35" s="84"/>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3439,7 +3463,7 @@
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -3448,7 +3472,7 @@
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3457,7 +3481,7 @@
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3466,7 +3490,7 @@
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3475,7 +3499,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -3484,7 +3508,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="104">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -3493,7 +3517,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -3502,7 +3526,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3511,7 +3535,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -3520,7 +3544,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -3529,7 +3553,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="F46"/>
     </row>
@@ -3539,7 +3563,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>830566.5</v>
+        <v>1089951.5</v>
       </c>
       <c r="F47"/>
     </row>
@@ -3674,7 +3698,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3691,25 +3715,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="136"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="B2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3909,10 +3933,10 @@
       <c r="E11" s="20">
         <v>43098</v>
       </c>
-      <c r="F11" s="143">
+      <c r="F11" s="134">
         <v>44965</v>
       </c>
-      <c r="G11" s="144">
+      <c r="G11" s="135">
         <v>43098</v>
       </c>
       <c r="H11" s="19">
@@ -3920,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44962</v>
       </c>
@@ -3938,12 +3962,12 @@
         <v>38</v>
       </c>
       <c r="G12" s="21">
-        <f>8600+10500</f>
-        <v>19100</v>
+        <f>8600+10500+2907</f>
+        <v>22007</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="0"/>
-        <v>2907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4031,63 +4055,87 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44967</v>
+      </c>
       <c r="B17" s="15">
         <v>646</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="20">
+        <v>8800</v>
+      </c>
       <c r="F17" s="122"/>
       <c r="G17" s="21"/>
       <c r="H17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>44969</v>
+      </c>
       <c r="B18" s="15">
         <v>647</v>
       </c>
       <c r="C18" s="27"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="20">
+        <v>18422</v>
+      </c>
       <c r="F18" s="122"/>
       <c r="G18" s="21"/>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44970</v>
+      </c>
       <c r="B19" s="15">
         <v>648</v>
       </c>
       <c r="C19" s="28"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4400</v>
+      </c>
       <c r="F19" s="122"/>
       <c r="G19" s="21"/>
       <c r="H19" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44970</v>
+      </c>
       <c r="B20" s="15">
         <v>649</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1200</v>
+      </c>
       <c r="F20" s="122"/>
       <c r="G20" s="21"/>
       <c r="H20" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4502,12 +4550,12 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>161053</v>
+        <v>193875</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>71409</v>
+        <v>74316</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
@@ -4553,12 +4601,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="138">
+      <c r="E52" s="140">
         <f>E48-G48</f>
-        <v>89644</v>
-      </c>
-      <c r="F52" s="139"/>
-      <c r="G52" s="140"/>
+        <v>119559</v>
+      </c>
+      <c r="F52" s="141"/>
+      <c r="G52" s="142"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4574,11 +4622,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="141" t="s">
+      <c r="E54" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>6-Feb-23--8-Feb-23--11-Feb-23</t>
+  </si>
+  <si>
+    <t>14-Feb-23--15-Feb-23--16-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -3698,7 +3701,10 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4026,11 +4032,15 @@
       <c r="E15" s="20">
         <v>1116</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="122">
+        <v>44972</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1116</v>
+      </c>
       <c r="H15" s="19">
         <f t="shared" si="0"/>
-        <v>1116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4075,7 +4085,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>44969</v>
       </c>
@@ -4089,11 +4099,16 @@
       <c r="E18" s="20">
         <v>18422</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="21">
+        <f>10900+2400+5122</f>
+        <v>18422</v>
+      </c>
       <c r="H18" s="19">
         <f t="shared" si="0"/>
-        <v>18422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4139,28 +4154,40 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44972</v>
+      </c>
       <c r="B21" s="15">
         <v>650</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="20">
+        <v>715</v>
+      </c>
       <c r="F21" s="122"/>
       <c r="G21" s="21"/>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44973</v>
+      </c>
       <c r="B22" s="15">
         <v>651</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
       <c r="F22" s="122"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19">
@@ -4550,12 +4577,12 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>193875</v>
+        <v>194590</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>74316</v>
+        <v>93854</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
@@ -4603,7 +4630,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="140">
         <f>E48-G48</f>
-        <v>119559</v>
+        <v>100736</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="142"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,6 +1047,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3704,7 +3708,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4196,123 +4200,179 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44974</v>
+      </c>
       <c r="B23" s="15">
         <v>652</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="20">
+        <v>14750</v>
+      </c>
       <c r="F23" s="122"/>
       <c r="G23" s="21"/>
       <c r="H23" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14">
+        <v>44974</v>
+      </c>
       <c r="B24" s="15">
         <v>653</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="20">
+        <v>568</v>
+      </c>
+      <c r="F24" s="122">
+        <v>44974</v>
+      </c>
+      <c r="G24" s="21">
+        <v>568</v>
+      </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="22">
+        <v>44975</v>
+      </c>
       <c r="B25" s="15">
         <v>654</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="20">
+        <v>7670</v>
+      </c>
       <c r="F25" s="122"/>
       <c r="G25" s="21"/>
       <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="22">
+        <v>44975</v>
+      </c>
       <c r="B26" s="15">
         <v>655</v>
       </c>
       <c r="C26" s="27"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1215</v>
+      </c>
       <c r="F26" s="122"/>
       <c r="G26" s="21"/>
       <c r="H26" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="22">
+        <v>44975</v>
+      </c>
       <c r="B27" s="15">
         <v>656</v>
       </c>
       <c r="C27" s="27"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2010</v>
+      </c>
       <c r="F27" s="122"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
+      <c r="A28" s="22">
+        <v>44975</v>
+      </c>
       <c r="B28" s="15">
         <v>657</v>
       </c>
       <c r="C28" s="27"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="21"/>
+      <c r="D28" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="20">
+        <v>450</v>
+      </c>
+      <c r="F28" s="145">
+        <v>44975</v>
+      </c>
+      <c r="G28" s="146">
+        <v>450</v>
+      </c>
       <c r="H28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="22">
+        <v>44975</v>
+      </c>
       <c r="B29" s="15">
         <v>658</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="20">
+        <v>11950</v>
+      </c>
       <c r="F29" s="122"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11950</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="22">
+        <v>44976</v>
+      </c>
       <c r="B30" s="15">
         <v>659</v>
       </c>
       <c r="C30" s="27"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="20">
+        <v>17140</v>
+      </c>
       <c r="F30" s="122"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17140</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4577,16 +4637,16 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>194590</v>
+        <v>250343</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>93854</v>
+        <v>94872</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
-        <v>0</v>
+        <v>54735</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -4630,7 +4690,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="140">
         <f>E48-G48</f>
-        <v>100736</v>
+        <v>155471</v>
       </c>
       <c r="F52" s="141"/>
       <c r="G52" s="142"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>14-Feb-23--15-Feb-23--16-Feb-23</t>
+  </si>
+  <si>
+    <t>21-Feb-23--23-Feb-23</t>
   </si>
 </sst>
 </file>
@@ -1020,6 +1023,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,10 +1054,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1081,13 +1084,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1134,13 +1137,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1606,13 +1609,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1629,25 +1632,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="B2" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1694,7 +1697,7 @@
       <c r="F4" s="121"/>
       <c r="G4" s="75"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H47" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H32" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -1996,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>44944</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>44945</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>44946</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>44947</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>44948</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>44951</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>44951</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>44951</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>44952</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>90643</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>44953</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>22032</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>44953</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="32.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>44953</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="15"/>
       <c r="C29" s="27"/>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="15"/>
       <c r="C30" s="27"/>
@@ -2308,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="15"/>
       <c r="C31" s="27"/>
@@ -2321,447 +2324,252 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="21"/>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="123"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40">
+        <f>SUM(E4:E32)</f>
+        <v>338682</v>
+      </c>
+      <c r="F33" s="124"/>
+      <c r="G33" s="40">
+        <f>SUM(G4:G32)</f>
+        <v>211817</v>
+      </c>
+      <c r="H33" s="41">
+        <f>SUM(H23:H32)</f>
+        <v>126615</v>
+      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="125"/>
+      <c r="G35" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="142">
+        <f>E33-G33</f>
+        <v>126865</v>
+      </c>
+      <c r="F37" s="143"/>
+      <c r="G37" s="144"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="43"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35">
-        <v>0</v>
-      </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="51"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="58"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40">
-        <f>SUM(E4:E47)</f>
-        <v>338682</v>
-      </c>
-      <c r="F48" s="124"/>
-      <c r="G48" s="40">
-        <f>SUM(G4:G47)</f>
-        <v>211817</v>
-      </c>
-      <c r="H48" s="41">
-        <f>SUM(H23:H47)</f>
-        <v>126615</v>
-      </c>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="58"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="58"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="125"/>
-      <c r="G50" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="44"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="140">
-        <f>E48-G48</f>
-        <v>126865</v>
-      </c>
-      <c r="F52" s="141"/>
-      <c r="G52" s="142"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="43"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="51"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="58"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="58"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="58"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2793,17 +2601,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
       <c r="Z2" s="116" t="s">
         <v>21</v>
       </c>
@@ -3705,10 +3513,10 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3725,25 +3533,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="140"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="B2" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3830,11 +3638,15 @@
       <c r="E6" s="20">
         <v>1441</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="122">
+        <v>44977</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1441</v>
+      </c>
       <c r="H6" s="19">
         <f t="shared" si="0"/>
-        <v>1441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4171,11 +3983,15 @@
       <c r="E21" s="20">
         <v>715</v>
       </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="122">
+        <v>44979</v>
+      </c>
+      <c r="G21" s="21">
+        <v>715</v>
+      </c>
       <c r="H21" s="19">
         <f t="shared" si="0"/>
-        <v>715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,10 +4138,10 @@
       <c r="E28" s="20">
         <v>450</v>
       </c>
-      <c r="F28" s="145">
+      <c r="F28" s="136">
         <v>44975</v>
       </c>
-      <c r="G28" s="146">
+      <c r="G28" s="137">
         <v>450</v>
       </c>
       <c r="H28" s="19">
@@ -4354,7 +4170,7 @@
         <v>11950</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>44976</v>
       </c>
@@ -4368,146 +4184,213 @@
       <c r="E30" s="20">
         <v>17140</v>
       </c>
-      <c r="F30" s="122"/>
-      <c r="G30" s="21"/>
+      <c r="F30" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="21">
+        <f>7000+10140</f>
+        <v>17140</v>
+      </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
-        <v>17140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="22">
+        <v>44977</v>
+      </c>
       <c r="B31" s="15">
         <v>660</v>
       </c>
       <c r="C31" s="27"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="20">
+        <v>8016</v>
+      </c>
       <c r="F31" s="122"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="22">
+        <v>44979</v>
+      </c>
       <c r="B32" s="15">
         <v>661</v>
       </c>
       <c r="C32" s="27"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1422</v>
+      </c>
       <c r="F32" s="122"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="22">
+        <v>44980</v>
+      </c>
       <c r="B33" s="15">
         <v>662</v>
       </c>
       <c r="C33" s="27"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3300</v>
+      </c>
       <c r="F33" s="122"/>
       <c r="G33" s="21"/>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="22">
+        <v>44981</v>
+      </c>
       <c r="B34" s="15">
         <v>663</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="20">
+        <v>3300</v>
+      </c>
       <c r="F34" s="122"/>
       <c r="G34" s="21"/>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="22">
+        <v>44981</v>
+      </c>
       <c r="B35" s="15">
         <v>664</v>
       </c>
       <c r="C35" s="27"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="20">
+        <v>12119</v>
+      </c>
       <c r="F35" s="122"/>
       <c r="G35" s="21"/>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="22">
+        <v>44981</v>
+      </c>
       <c r="B36" s="15">
         <v>665</v>
       </c>
       <c r="C36" s="27"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="21"/>
+      <c r="D36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1856</v>
+      </c>
+      <c r="F36" s="122">
+        <v>44981</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1856</v>
+      </c>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="22">
+        <v>44982</v>
+      </c>
       <c r="B37" s="15">
         <v>666</v>
       </c>
       <c r="C37" s="27"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="20">
+        <v>4950</v>
+      </c>
       <c r="F37" s="122"/>
       <c r="G37" s="21"/>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="22">
+        <v>44982</v>
+      </c>
       <c r="B38" s="15">
         <v>667</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="21"/>
+      <c r="D38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="20">
+        <v>281</v>
+      </c>
+      <c r="F38" s="122">
+        <v>44982</v>
+      </c>
+      <c r="G38" s="21">
+        <v>281</v>
+      </c>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="22">
+        <v>44982</v>
+      </c>
       <c r="B39" s="15">
         <v>668</v>
       </c>
       <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="20">
+        <v>420</v>
+      </c>
       <c r="F39" s="122"/>
       <c r="G39" s="21"/>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4637,16 +4520,16 @@
       <c r="D48" s="39"/>
       <c r="E48" s="40">
         <f>SUM(E4:E47)</f>
-        <v>250343</v>
+        <v>286007</v>
       </c>
       <c r="F48" s="124"/>
       <c r="G48" s="40">
         <f>SUM(G4:G47)</f>
-        <v>94872</v>
+        <v>116305</v>
       </c>
       <c r="H48" s="41">
         <f>SUM(H23:H47)</f>
-        <v>54735</v>
+        <v>71122</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -4688,12 +4571,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="140">
+      <c r="E52" s="142">
         <f>E48-G48</f>
-        <v>155471</v>
-      </c>
-      <c r="F52" s="141"/>
-      <c r="G52" s="142"/>
+        <v>169702</v>
+      </c>
+      <c r="F52" s="143"/>
+      <c r="G52" s="144"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4709,11 +4592,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="143" t="s">
+      <c r="E54" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    Z A V A L E T A </t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>21-Feb-23--23-Feb-23</t>
+  </si>
+  <si>
+    <t>27-Feb-23--1-Mar-23--2-Mar-23</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,12 +494,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -746,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,10 +1016,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1238,13 +1231,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1291,13 +1284,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1632,25 +1625,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="B2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2397,12 +2390,12 @@
       <c r="B37" s="37"/>
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="142">
+      <c r="E37" s="140">
         <f>E33-G33</f>
         <v>126865</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2418,11 +2411,11 @@
       <c r="B39" s="37"/>
       <c r="C39" s="38"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="145" t="s">
+      <c r="E39" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2601,17 +2594,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
       <c r="Z2" s="116" t="s">
         <v>21</v>
       </c>
@@ -3510,13 +3503,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3533,25 +3526,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="140"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="138"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="B2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3598,7 +3591,7 @@
       <c r="F4" s="130"/>
       <c r="G4" s="131"/>
       <c r="H4" s="19">
-        <f t="shared" ref="H4:H47" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H54" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -3755,10 +3748,10 @@
       <c r="E11" s="20">
         <v>43098</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="122">
         <v>44965</v>
       </c>
-      <c r="G11" s="135">
+      <c r="G11" s="21">
         <v>43098</v>
       </c>
       <c r="H11" s="19">
@@ -4138,10 +4131,10 @@
       <c r="E28" s="20">
         <v>450</v>
       </c>
-      <c r="F28" s="136">
+      <c r="F28" s="134">
         <v>44975</v>
       </c>
-      <c r="G28" s="137">
+      <c r="G28" s="135">
         <v>450</v>
       </c>
       <c r="H28" s="19">
@@ -4231,14 +4224,18 @@
       <c r="E32" s="20">
         <v>1422</v>
       </c>
-      <c r="F32" s="122"/>
-      <c r="G32" s="21"/>
+      <c r="F32" s="122">
+        <v>44986</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1422</v>
+      </c>
       <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>44980</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>44981</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>44981</v>
       </c>
@@ -4301,7 +4298,7 @@
         <v>12119</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>44981</v>
       </c>
@@ -4326,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>44982</v>
       </c>
@@ -4347,7 +4344,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>44982</v>
       </c>
@@ -4372,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>44982</v>
       </c>
@@ -4393,306 +4390,379 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+    <row r="40" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>44983</v>
+      </c>
       <c r="B40" s="15">
         <v>669</v>
       </c>
       <c r="C40" s="27"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="20">
+        <v>25660</v>
+      </c>
+      <c r="F40" s="122" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="21">
+        <f>10100+8300+7260</f>
+        <v>25660</v>
+      </c>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>44984</v>
+      </c>
       <c r="B41" s="15">
         <v>670</v>
       </c>
       <c r="C41" s="27"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="20">
+        <v>3300</v>
+      </c>
       <c r="F41" s="122"/>
       <c r="G41" s="21"/>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>44985</v>
+      </c>
       <c r="B42" s="15">
         <v>671</v>
       </c>
       <c r="C42" s="27"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="20">
+        <v>16878</v>
+      </c>
       <c r="F42" s="122"/>
       <c r="G42" s="21"/>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+        <v>16878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>44986</v>
+      </c>
       <c r="B43" s="15">
         <v>672</v>
       </c>
       <c r="C43" s="27"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1046</v>
+      </c>
       <c r="F43" s="122"/>
       <c r="G43" s="21"/>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>44986</v>
+      </c>
       <c r="B44" s="15">
         <v>673</v>
       </c>
       <c r="C44" s="27"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="20">
+        <v>20123</v>
+      </c>
       <c r="F44" s="122"/>
       <c r="G44" s="21"/>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+        <v>20123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>44986</v>
+      </c>
       <c r="B45" s="15">
         <v>674</v>
       </c>
       <c r="C45" s="27"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="20">
+        <v>8180</v>
+      </c>
       <c r="F45" s="122"/>
       <c r="G45" s="21"/>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>44987</v>
+      </c>
       <c r="B46" s="15">
         <v>675</v>
       </c>
       <c r="C46" s="27"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="20">
+        <v>10730</v>
+      </c>
       <c r="F46" s="122"/>
       <c r="G46" s="21"/>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35">
-        <v>0</v>
-      </c>
-      <c r="F47" s="123"/>
-      <c r="G47" s="36"/>
+        <v>10730</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>44988</v>
+      </c>
+      <c r="B47" s="15">
+        <v>676</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1552</v>
+      </c>
+      <c r="F47" s="122">
+        <v>44988</v>
+      </c>
+      <c r="G47" s="21">
+        <v>1552</v>
+      </c>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40">
-        <f>SUM(E4:E47)</f>
-        <v>286007</v>
-      </c>
-      <c r="F48" s="124"/>
-      <c r="G48" s="40">
-        <f>SUM(G4:G47)</f>
-        <v>116305</v>
-      </c>
-      <c r="H48" s="41">
-        <f>SUM(H23:H47)</f>
-        <v>71122</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="45" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="123"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40">
+        <f>SUM(E4:E54)</f>
+        <v>373476</v>
+      </c>
+      <c r="F55" s="124"/>
+      <c r="G55" s="40">
+        <f>SUM(G4:G54)</f>
+        <v>144939</v>
+      </c>
+      <c r="H55" s="41">
+        <f>SUM(H23:H54)</f>
+        <v>129957</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="125"/>
-      <c r="G50" s="46" t="s">
+      <c r="F57" s="125"/>
+      <c r="G57" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="142">
-        <f>E48-G48</f>
-        <v>169702</v>
-      </c>
-      <c r="F52" s="143"/>
-      <c r="G52" s="144"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="43"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="145" t="s">
+      <c r="H57" s="44"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="140">
+        <f>E55-G55</f>
+        <v>228537</v>
+      </c>
+      <c r="F59" s="141"/>
+      <c r="G59" s="142"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="51"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="58"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="58"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="51"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="64"/>
+    <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="58"/>
       <c r="I63" s="2"/>
     </row>
@@ -4727,23 +4797,100 @@
       <c r="F66" s="127"/>
       <c r="G66" s="64"/>
       <c r="H66" s="58"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="59"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="69"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="64"/>
       <c r="H67" s="58"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="127"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="58"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -1605,10 +1605,10 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2577,7 +2577,7 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -3506,10 +3506,10 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO   2 0 2 3    " sheetId="1" r:id="rId1"/>
@@ -1194,8 +1194,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>479377</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>88650</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2577,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2647,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3184,32 +3184,44 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-939390.08000000007</v>
+        <v>-586562.08000000007</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="91">
+        <v>44987</v>
+      </c>
+      <c r="C29" s="92">
+        <v>44994</v>
+      </c>
+      <c r="D29" s="21">
+        <v>73292</v>
+      </c>
       <c r="E29" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
+        <v>1163243.5</v>
       </c>
       <c r="G29" s="99"/>
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-939390.08000000007</v>
+        <v>-586562.08000000007</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="91">
+        <v>44988</v>
+      </c>
+      <c r="C30" s="92">
+        <v>44994</v>
+      </c>
+      <c r="D30" s="21">
+        <v>77333</v>
+      </c>
       <c r="E30" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
+        <v>1240576.5</v>
       </c>
       <c r="G30" s="99"/>
       <c r="H30" s="99"/>
@@ -3217,165 +3229,195 @@
       <c r="J30" s="100"/>
     </row>
     <row r="31" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+      <c r="B31" s="52">
+        <v>44989</v>
+      </c>
+      <c r="C31" s="101">
+        <v>44994</v>
+      </c>
+      <c r="D31" s="102">
+        <v>200</v>
+      </c>
       <c r="E31" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
+        <v>1240776.5</v>
       </c>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
       <c r="I31" s="99"/>
       <c r="J31" s="100"/>
     </row>
-    <row r="32" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="82"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="103"/>
+    <row r="32" spans="2:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="82">
+        <v>44989</v>
+      </c>
+      <c r="C32" s="90">
+        <v>44994</v>
+      </c>
+      <c r="D32" s="103">
+        <v>68366</v>
+      </c>
       <c r="E32" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="82"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="103"/>
+        <v>1309142.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="82">
+        <v>44990</v>
+      </c>
+      <c r="C33" s="90">
+        <v>44994</v>
+      </c>
+      <c r="D33" s="103">
+        <v>39347</v>
+      </c>
       <c r="E33" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="82"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="103"/>
+        <v>1348489.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="82">
+        <v>44991</v>
+      </c>
+      <c r="C34" s="90">
+        <v>44994</v>
+      </c>
+      <c r="D34" s="103">
+        <v>42674.5</v>
+      </c>
       <c r="E34" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="82"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="84"/>
+        <v>1391164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="82">
+        <v>44992</v>
+      </c>
+      <c r="C35" s="90">
+        <v>44994</v>
+      </c>
+      <c r="D35" s="84">
+        <v>51615.5</v>
+      </c>
       <c r="E35" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="82"/>
       <c r="C36" s="90"/>
       <c r="D36" s="84"/>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="82"/>
       <c r="C37" s="90"/>
       <c r="D37" s="84"/>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="82"/>
       <c r="C38" s="90"/>
       <c r="D38" s="84"/>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="82"/>
       <c r="C39" s="90"/>
       <c r="D39" s="84"/>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="82"/>
       <c r="C40" s="90"/>
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="82"/>
       <c r="C41" s="90"/>
       <c r="D41" s="84"/>
       <c r="E41" s="104">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="82"/>
       <c r="C42" s="90"/>
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="82"/>
       <c r="C43" s="90"/>
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="82"/>
       <c r="C44" s="90"/>
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="82"/>
       <c r="C45" s="87"/>
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1442779.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="82"/>
       <c r="C46" s="87"/>
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
       <c r="F46"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="82"/>
       <c r="C47" s="87"/>
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1089951.5</v>
+        <v>1442779.5</v>
       </c>
       <c r="F47"/>
     </row>
-    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="81"/>
       <c r="D48"/>
       <c r="E48" s="105"/>
@@ -3505,7 +3547,7 @@
   </sheetPr>
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -2577,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2647,7 @@
       <c r="I4" s="88"/>
       <c r="J4" s="20">
         <f>E47+I4</f>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="20">
         <f>J4+I5</f>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       <c r="I6" s="88"/>
       <c r="J6" s="20">
         <f t="shared" ref="J6:J29" si="1">J5+I6</f>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
       <c r="I7" s="88"/>
       <c r="J7" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
       <c r="I8" s="88"/>
       <c r="J8" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
       <c r="I10" s="84"/>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
       <c r="I11" s="84"/>
       <c r="J11" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
       <c r="I12" s="84"/>
       <c r="J12" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
       <c r="I13" s="84"/>
       <c r="J13" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
       <c r="I14" s="84"/>
       <c r="J14" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
       <c r="I16" s="84"/>
       <c r="J16" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
       <c r="I17" s="84"/>
       <c r="J17" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
       <c r="I18" s="84"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
       <c r="I19" s="84"/>
       <c r="J19" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       <c r="I20" s="88"/>
       <c r="J20" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
       <c r="I21" s="88"/>
       <c r="J21" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
       <c r="I22" s="88"/>
       <c r="J22" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
       <c r="I23" s="88"/>
       <c r="J23" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
       <c r="I24" s="88"/>
       <c r="J24" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
       <c r="I26" s="93"/>
       <c r="J26" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
       <c r="I27" s="96"/>
       <c r="J27" s="20">
         <f t="shared" si="1"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-586562.08000000007</v>
+        <v>-351121.58000000007</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
       <c r="I29" s="99"/>
       <c r="J29" s="20">
         <f t="shared" si="1"/>
-        <v>-586562.08000000007</v>
+        <v>-351121.58000000007</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="23.25" x14ac:dyDescent="0.25">
@@ -3308,39 +3308,63 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="84"/>
+      <c r="B36" s="82">
+        <v>44993</v>
+      </c>
+      <c r="C36" s="90">
+        <v>44998</v>
+      </c>
+      <c r="D36" s="84">
+        <v>36478.5</v>
+      </c>
       <c r="E36" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1479258</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="84"/>
+      <c r="B37" s="82">
+        <v>44994</v>
+      </c>
+      <c r="C37" s="90">
+        <v>44998</v>
+      </c>
+      <c r="D37" s="84">
+        <v>46519</v>
+      </c>
       <c r="E37" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1525777</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="82">
+        <v>44995</v>
+      </c>
+      <c r="C38" s="90">
+        <v>44998</v>
+      </c>
+      <c r="D38" s="84">
+        <v>99973</v>
+      </c>
       <c r="E38" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1625750</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="84"/>
+      <c r="B39" s="82">
+        <v>44996</v>
+      </c>
+      <c r="C39" s="90">
+        <v>44998</v>
+      </c>
+      <c r="D39" s="84">
+        <v>52470</v>
+      </c>
       <c r="E39" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,7 +3373,7 @@
       <c r="D40" s="84"/>
       <c r="E40" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,7 +3382,7 @@
       <c r="D41" s="84"/>
       <c r="E41" s="104">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,7 +3391,7 @@
       <c r="D42" s="84"/>
       <c r="E42" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3376,7 +3400,7 @@
       <c r="D43" s="84"/>
       <c r="E43" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3409,7 @@
       <c r="D44" s="84"/>
       <c r="E44" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3394,7 +3418,7 @@
       <c r="D45" s="84"/>
       <c r="E45" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3403,7 +3427,7 @@
       <c r="D46" s="84"/>
       <c r="E46" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
       <c r="F46"/>
     </row>
@@ -3413,7 +3437,7 @@
       <c r="D47" s="84"/>
       <c r="E47" s="20">
         <f t="shared" si="0"/>
-        <v>1442779.5</v>
+        <v>1678220</v>
       </c>
       <c r="F47"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/CREDITOS     ZAVALETA  FEBRERO    2023.xlsx
@@ -2577,8 +2577,8 @@
   </sheetPr>
   <dimension ref="A2:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
